--- a/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>185396</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>177411</v>
+        <v>176324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>191666</v>
+        <v>191404</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9267395892980913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8868265852959398</v>
+        <v>0.8813910669949124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9580808298545179</v>
+        <v>0.9567729603801886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>222</v>
@@ -762,19 +762,19 @@
         <v>133250</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>125965</v>
+        <v>125665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138753</v>
+        <v>138569</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8808238402709725</v>
+        <v>0.8808238402709727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8326641625673129</v>
+        <v>0.8306869906783494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.917200253173985</v>
+        <v>0.9159803343262899</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>406</v>
@@ -783,19 +783,19 @@
         <v>318646</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>308412</v>
+        <v>308209</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>327181</v>
+        <v>327271</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9069688125889918</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8778389628705789</v>
+        <v>0.8772621554038901</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9312600154017028</v>
+        <v>0.93151709932902</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4065</v>
+        <v>3846</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16194</v>
+        <v>16022</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.04330246774981945</v>
+        <v>0.04330246774981946</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02031878671440523</v>
+        <v>0.01922261008434728</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08094761104119282</v>
+        <v>0.0800914517905732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -833,19 +833,19 @@
         <v>10584</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6864</v>
+        <v>6182</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16880</v>
+        <v>15945</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06996488347992781</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04537150402369926</v>
+        <v>0.04086673459569219</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1115794469992749</v>
+        <v>0.1054043683803559</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -854,19 +854,19 @@
         <v>19247</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12957</v>
+        <v>12624</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28332</v>
+        <v>27404</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05478298759528293</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0368810607161893</v>
+        <v>0.03593128078580059</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08064290064741295</v>
+        <v>0.07800120334862561</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>2566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6896</v>
+        <v>7058</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01282741590256967</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004074685721260052</v>
+        <v>0.004172571937838026</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03447351513947192</v>
+        <v>0.03527990940338044</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -904,19 +904,19 @@
         <v>4430</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2051</v>
+        <v>1976</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8343</v>
+        <v>8920</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02928296073534302</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01355517673118876</v>
+        <v>0.01306111023004335</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05514729301396679</v>
+        <v>0.05896089020600825</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -925,19 +925,19 @@
         <v>6996</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3633</v>
+        <v>3356</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12664</v>
+        <v>12364</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01991297825119187</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01034012998027131</v>
+        <v>0.009553615312528204</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03604586471132302</v>
+        <v>0.03519197736440349</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>3427</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>854</v>
+        <v>880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8016</v>
+        <v>8755</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01713052704951958</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00426913731608269</v>
+        <v>0.004399001465876161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04007066565474414</v>
+        <v>0.04376421155918831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -975,19 +975,19 @@
         <v>2546</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>879</v>
+        <v>571</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6485</v>
+        <v>6645</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01683305900255718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00581254209447324</v>
+        <v>0.003772574744989833</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04286991715776912</v>
+        <v>0.04392641423569145</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -996,19 +996,19 @@
         <v>5973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2612</v>
+        <v>2763</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11165</v>
+        <v>11262</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01700244083816077</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007434830352303543</v>
+        <v>0.007863696080362588</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03177906901273984</v>
+        <v>0.03205395935915664</v>
       </c>
     </row>
     <row r="8">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2730</v>
+        <v>1941</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003095256511199491</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01804435620359779</v>
+        <v>0.0128329413969071</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2350</v>
+        <v>2364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00133278072637274</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006688272030525076</v>
+        <v>0.006729134436161457</v>
       </c>
     </row>
     <row r="9">
@@ -1210,19 +1210,19 @@
         <v>125293</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105502</v>
+        <v>106472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144909</v>
+        <v>146307</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4956979897303954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.417398322376582</v>
+        <v>0.4212367108395076</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5733084551372799</v>
+        <v>0.578839241298634</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>108</v>
@@ -1231,19 +1231,19 @@
         <v>89174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75923</v>
+        <v>77682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101535</v>
+        <v>101760</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5144201407589521</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4379780798397928</v>
+        <v>0.4481234655111478</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.585727826436285</v>
+        <v>0.5870244136110953</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>200</v>
@@ -1252,19 +1252,19 @@
         <v>214466</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>190072</v>
+        <v>189556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236922</v>
+        <v>237339</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5033144947423847</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4460658254199344</v>
+        <v>0.4448541637604224</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5560131433419301</v>
+        <v>0.5569921982352301</v>
       </c>
     </row>
     <row r="12">
@@ -1281,19 +1281,19 @@
         <v>34362</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21391</v>
+        <v>22455</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51082</v>
+        <v>52551</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1359465228959878</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08463035505688728</v>
+        <v>0.08883743314204473</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2020958048139772</v>
+        <v>0.2079091187663347</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -1302,19 +1302,19 @@
         <v>26124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17991</v>
+        <v>17894</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37016</v>
+        <v>36414</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1507038434663553</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1037853112816707</v>
+        <v>0.1032255450955852</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.21353567405458</v>
+        <v>0.2100625683837813</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -1323,19 +1323,19 @@
         <v>60486</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43737</v>
+        <v>44693</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>78358</v>
+        <v>80058</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1419500641512791</v>
+        <v>0.1419500641512792</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1026425292762803</v>
+        <v>0.1048876841863776</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1838921047971371</v>
+        <v>0.1878815428259392</v>
       </c>
     </row>
     <row r="13">
@@ -1352,19 +1352,19 @@
         <v>43516</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28665</v>
+        <v>26880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62827</v>
+        <v>60875</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1721622783527493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1134061552537276</v>
+        <v>0.1063457939711402</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2485631192043428</v>
+        <v>0.2408410209669073</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1373,19 +1373,19 @@
         <v>20119</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13247</v>
+        <v>13253</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30048</v>
+        <v>29393</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1160632932983687</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07641807153943835</v>
+        <v>0.0764543565480139</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.173335547955733</v>
+        <v>0.1695584880201819</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1394,19 +1394,19 @@
         <v>63635</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46745</v>
+        <v>47890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82824</v>
+        <v>84701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1493402105154332</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.109702889778636</v>
+        <v>0.1123891388543175</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1943739236922805</v>
+        <v>0.1987786477016052</v>
       </c>
     </row>
     <row r="14">
@@ -1423,19 +1423,19 @@
         <v>38664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25546</v>
+        <v>24980</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56220</v>
+        <v>56379</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1529673232035077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1010678245489978</v>
+        <v>0.09882883929407271</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2224233289739332</v>
+        <v>0.2230524193740874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1444,19 +1444,19 @@
         <v>23376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16042</v>
+        <v>15966</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33033</v>
+        <v>32836</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1348500133252585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09254145389721945</v>
+        <v>0.0921007243684983</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1905573466993757</v>
+        <v>0.1894222791740335</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -1465,19 +1465,19 @@
         <v>62040</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>46342</v>
+        <v>46589</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>79372</v>
+        <v>82172</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1455968783608733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1087564371208418</v>
+        <v>0.1093372482262415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1862729404644475</v>
+        <v>0.1928441612180253</v>
       </c>
     </row>
     <row r="15">
@@ -1494,19 +1494,19 @@
         <v>8160</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2820</v>
+        <v>3624</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16727</v>
+        <v>17551</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03228492807194544</v>
+        <v>0.03228492807194545</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01115607931621618</v>
+        <v>0.01433793411930503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06617860632961292</v>
+        <v>0.06943631399893208</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -1515,19 +1515,19 @@
         <v>11225</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6465</v>
+        <v>6581</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17799</v>
+        <v>19014</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06475297350969553</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03729736712344223</v>
+        <v>0.03796505370296252</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1026788472901488</v>
+        <v>0.1096839848014467</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>20</v>
@@ -1536,19 +1536,19 @@
         <v>19385</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>11736</v>
+        <v>12673</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>30556</v>
+        <v>29623</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04549350813461689</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02754269399035212</v>
+        <v>0.02974032004952798</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0717085615423201</v>
+        <v>0.06951897752589921</v>
       </c>
     </row>
     <row r="16">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8827</v>
+        <v>9268</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01094095774541452</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03492054951922176</v>
+        <v>0.03666802394750728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1586,19 +1586,19 @@
         <v>3330</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>756</v>
+        <v>1107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8177</v>
+        <v>8079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01920973564136973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004359141568520237</v>
+        <v>0.006388119731203329</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04716863870397007</v>
+        <v>0.04660329160451568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1607,19 +1607,19 @@
         <v>6095</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14329</v>
+        <v>13654</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01430484409541283</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005300726074358309</v>
+        <v>0.005289083846245128</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03362729226209801</v>
+        <v>0.03204460339001924</v>
       </c>
     </row>
     <row r="17">
@@ -1711,19 +1711,19 @@
         <v>77997</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66709</v>
+        <v>66665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90623</v>
+        <v>89638</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5259350616070146</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4498159105463758</v>
+        <v>0.4495236024168732</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.611068148460258</v>
+        <v>0.6044271867939726</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>87</v>
@@ -1732,19 +1732,19 @@
         <v>65678</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56494</v>
+        <v>56137</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74596</v>
+        <v>74153</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5485055938691099</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4718082441756112</v>
+        <v>0.4688203372388094</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6229799782128167</v>
+        <v>0.6192854074477513</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>165</v>
@@ -1753,19 +1753,19 @@
         <v>143675</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>127172</v>
+        <v>128628</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>157373</v>
+        <v>158615</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5360177790923777</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4744493002337856</v>
+        <v>0.4798836511730531</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5871229172719367</v>
+        <v>0.5917572116030354</v>
       </c>
     </row>
     <row r="19">
@@ -1782,19 +1782,19 @@
         <v>28724</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20469</v>
+        <v>20203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39594</v>
+        <v>40307</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1936891449012258</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1380218788929934</v>
+        <v>0.1362298659208472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2669796270533212</v>
+        <v>0.2717880485464899</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1803,19 +1803,19 @@
         <v>23527</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16652</v>
+        <v>16543</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31643</v>
+        <v>31822</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1964878130208621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1390661682442914</v>
+        <v>0.1381550400680472</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2642626681940702</v>
+        <v>0.2657558691842802</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1824,19 +1824,19 @@
         <v>52252</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41412</v>
+        <v>40531</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66747</v>
+        <v>64610</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1949393670784393</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1544996018633755</v>
+        <v>0.1512135677519576</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2490186078022765</v>
+        <v>0.2410452990009852</v>
       </c>
     </row>
     <row r="20">
@@ -1853,19 +1853,19 @@
         <v>19205</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12310</v>
+        <v>12121</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29113</v>
+        <v>28305</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1294975186114962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08300444356748814</v>
+        <v>0.08173435736121094</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1963104885501083</v>
+        <v>0.1908614333457975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1874,19 +1874,19 @@
         <v>14369</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9041</v>
+        <v>9029</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21196</v>
+        <v>21518</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1199995491776104</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07550217288876604</v>
+        <v>0.07540920207893277</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1770168822134462</v>
+        <v>0.1797087066854681</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -1895,19 +1895,19 @@
         <v>33573</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24620</v>
+        <v>24003</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44991</v>
+        <v>44600</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.12525458178686</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09185148063614167</v>
+        <v>0.08955045126857575</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1678521690331748</v>
+        <v>0.1663906806321649</v>
       </c>
     </row>
     <row r="21">
@@ -1924,19 +1924,19 @@
         <v>6301</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2850</v>
+        <v>2662</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12146</v>
+        <v>12475</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04248550613135184</v>
+        <v>0.04248550613135185</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01921516950409369</v>
+        <v>0.01795274761768123</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08189730218858879</v>
+        <v>0.08412055411630144</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1945,19 +1945,19 @@
         <v>8258</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4356</v>
+        <v>4876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13538</v>
+        <v>14433</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.06896293566884261</v>
+        <v>0.0689629356688426</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0363793552211233</v>
+        <v>0.04071864247170976</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1130578418655545</v>
+        <v>0.1205346967719703</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -1966,19 +1966,19 @@
         <v>14558</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9035</v>
+        <v>9367</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21227</v>
+        <v>23335</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05431351437967586</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03370723135008772</v>
+        <v>0.03494508746870805</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07919146565916252</v>
+        <v>0.08705672272419984</v>
       </c>
     </row>
     <row r="22">
@@ -1995,19 +1995,19 @@
         <v>13352</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7636</v>
+        <v>7246</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22159</v>
+        <v>20774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09003276508051755</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05149205485480789</v>
+        <v>0.04885944406469626</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1494150486689052</v>
+        <v>0.1400788125251086</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2016,19 +2016,19 @@
         <v>4704</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2001</v>
+        <v>1856</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10219</v>
+        <v>9021</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03928825615035106</v>
+        <v>0.03928825615035105</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01671202895924487</v>
+        <v>0.01550439571906394</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08534473954035049</v>
+        <v>0.07534007739280768</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2037,19 +2037,19 @@
         <v>18056</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11797</v>
+        <v>11575</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26979</v>
+        <v>26893</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06736415711261425</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04401023136852911</v>
+        <v>0.04318546393304774</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1006543442278639</v>
+        <v>0.10033084358848</v>
       </c>
     </row>
     <row r="23">
@@ -2066,19 +2066,19 @@
         <v>2723</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7213</v>
+        <v>7309</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01836000366839401</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005770377519566994</v>
+        <v>0.005728931143078358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04863413816474826</v>
+        <v>0.04928493720240976</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2087,19 +2087,19 @@
         <v>3204</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7210</v>
+        <v>6712</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02675585211322401</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01024146036843431</v>
+        <v>0.01010331245119039</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06021430405431511</v>
+        <v>0.05605184881210241</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2108,19 +2108,19 @@
         <v>5927</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2558</v>
+        <v>2592</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11325</v>
+        <v>11159</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02211060055003296</v>
+        <v>0.02211060055003295</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009544640410972914</v>
+        <v>0.009670076954173826</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04224973870346112</v>
+        <v>0.04162985269933107</v>
       </c>
     </row>
     <row r="24">
@@ -2212,19 +2212,19 @@
         <v>125656</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106366</v>
+        <v>104536</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>144289</v>
+        <v>144137</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5947919377767779</v>
+        <v>0.5947919377767776</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5034808480913068</v>
+        <v>0.4948190480525348</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.682987668222412</v>
+        <v>0.6822681291897766</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>110</v>
@@ -2233,19 +2233,19 @@
         <v>103988</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>90522</v>
+        <v>91338</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>117679</v>
+        <v>117296</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5868723125659225</v>
+        <v>0.5868723125659226</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.510873338818925</v>
+        <v>0.5154795031444849</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.664140819570911</v>
+        <v>0.6619801197334555</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>179</v>
@@ -2254,19 +2254,19 @@
         <v>229644</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>205521</v>
+        <v>205616</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>254591</v>
+        <v>253061</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5911794364672206</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5290795062267482</v>
+        <v>0.529321938833756</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6554015009945692</v>
+        <v>0.6514627823070571</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>32429</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21327</v>
+        <v>21159</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49979</v>
+        <v>50386</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1535025570111695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1009505156736864</v>
+        <v>0.1001572243458313</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2365754432331485</v>
+        <v>0.2384997951552636</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -2304,19 +2304,19 @@
         <v>37609</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27388</v>
+        <v>27537</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48741</v>
+        <v>48952</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.212254740837378</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1545703418335181</v>
+        <v>0.1554071492987751</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2750799030352973</v>
+        <v>0.2762707580731715</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>68</v>
@@ -2325,19 +2325,19 @@
         <v>70039</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>54150</v>
+        <v>53467</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>88431</v>
+        <v>88641</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1803021005957074</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1393997555377931</v>
+        <v>0.1376409201361442</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.227649709479196</v>
+        <v>0.2281910288561201</v>
       </c>
     </row>
     <row r="27">
@@ -2354,19 +2354,19 @@
         <v>11721</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4838</v>
+        <v>5298</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>25801</v>
+        <v>27129</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05548067128845523</v>
+        <v>0.05548067128845521</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02290027633221766</v>
+        <v>0.02507809374293983</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1221294881727232</v>
+        <v>0.1284136309707738</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>12</v>
@@ -2375,19 +2375,19 @@
         <v>8877</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4969</v>
+        <v>4672</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15512</v>
+        <v>15262</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.0500974343257338</v>
+        <v>0.05009743432573382</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02804348404874442</v>
+        <v>0.02636677726922365</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08754355579021345</v>
+        <v>0.08613357224583774</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -2396,19 +2396,19 @@
         <v>20598</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>11955</v>
+        <v>12168</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>34139</v>
+        <v>33122</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.05302513203505319</v>
+        <v>0.05302513203505318</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03077610643099807</v>
+        <v>0.03132317216333141</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0878852737555303</v>
+        <v>0.08526666145248615</v>
       </c>
     </row>
     <row r="28">
@@ -2425,19 +2425,19 @@
         <v>14481</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5988</v>
+        <v>6024</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>33288</v>
+        <v>31156</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06854470059193794</v>
+        <v>0.06854470059193792</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02834490270941122</v>
+        <v>0.02851461529397663</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1575671106765877</v>
+        <v>0.1474749227919102</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2446,19 +2446,19 @@
         <v>8154</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3806</v>
+        <v>3984</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14423</v>
+        <v>15011</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04601803337731128</v>
+        <v>0.04601803337731129</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02147765054584582</v>
+        <v>0.02248372064915954</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08140013883315425</v>
+        <v>0.08471960013773892</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -2467,19 +2467,19 @@
         <v>22635</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13382</v>
+        <v>12601</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>36855</v>
+        <v>38355</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05826926297384784</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03444955839247602</v>
+        <v>0.03243944543143645</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09487601621849671</v>
+        <v>0.09873817942107029</v>
       </c>
     </row>
     <row r="29">
@@ -2496,19 +2496,19 @@
         <v>19706</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10043</v>
+        <v>9902</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36325</v>
+        <v>35515</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09327943342073507</v>
+        <v>0.09327943342073503</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04753932167127443</v>
+        <v>0.04687291569067138</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1719444828416767</v>
+        <v>0.1681114688658861</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -2517,19 +2517,19 @@
         <v>12774</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6507</v>
+        <v>6306</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24566</v>
+        <v>23631</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.07209043783457093</v>
+        <v>0.07209043783457092</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03672135555458841</v>
+        <v>0.03558826901106785</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.13864119248863</v>
+        <v>0.1333660761070986</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -2538,19 +2538,19 @@
         <v>32480</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19353</v>
+        <v>20908</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50237</v>
+        <v>51054</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08361416868089616</v>
+        <v>0.08361416868089613</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04982167374101228</v>
+        <v>0.05382324242402464</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1293273291484218</v>
+        <v>0.1314297240771805</v>
       </c>
     </row>
     <row r="30">
@@ -2567,19 +2567,19 @@
         <v>7268</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2721</v>
+        <v>2869</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15489</v>
+        <v>14862</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03440069991092454</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01287943112859224</v>
+        <v>0.01357864976920949</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07331520508905344</v>
+        <v>0.07034980765811664</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2588,19 +2588,19 @@
         <v>5788</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2835</v>
+        <v>2602</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11508</v>
+        <v>11134</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03266704105908325</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01600063976966424</v>
+        <v>0.01468452786876452</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0649478701700555</v>
+        <v>0.06283515519834106</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>14</v>
@@ -2609,19 +2609,19 @@
         <v>13056</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7081</v>
+        <v>6987</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21401</v>
+        <v>21541</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03360989924727475</v>
+        <v>0.03360989924727474</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01822818089435382</v>
+        <v>0.01798790229815569</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05509322885935748</v>
+        <v>0.0554539766906793</v>
       </c>
     </row>
     <row r="31">
@@ -2713,19 +2713,19 @@
         <v>17838</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12110</v>
+        <v>11324</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25926</v>
+        <v>25872</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1326397693600454</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09004732624986217</v>
+        <v>0.08420334112536326</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1927876347527686</v>
+        <v>0.1923811751779463</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -2734,19 +2734,19 @@
         <v>12202</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7625</v>
+        <v>7658</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>20173</v>
+        <v>19322</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1035968698741949</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06473547827966458</v>
+        <v>0.06501924479368533</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.171275668283024</v>
+        <v>0.1640510121528966</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>42</v>
@@ -2755,19 +2755,19 @@
         <v>30039</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>21674</v>
+        <v>22170</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>39576</v>
+        <v>39728</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1190795635755599</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08591851100474614</v>
+        <v>0.08788619590144722</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1568854897896437</v>
+        <v>0.1574879711568501</v>
       </c>
     </row>
     <row r="33">
@@ -2784,19 +2784,19 @@
         <v>91227</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>80794</v>
+        <v>81643</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>100142</v>
+        <v>101169</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6783644195845727</v>
+        <v>0.6783644195845728</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6007815895991219</v>
+        <v>0.6070979292247168</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7446529404376063</v>
+        <v>0.752292428644787</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>190</v>
@@ -2805,19 +2805,19 @@
         <v>93380</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>85679</v>
+        <v>85575</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>99698</v>
+        <v>99213</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.7928225491916514</v>
+        <v>0.7928225491916513</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7274340937968349</v>
+        <v>0.7265540672741883</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8464600199861353</v>
+        <v>0.8423403227186469</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>305</v>
@@ -2826,19 +2826,19 @@
         <v>184607</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>172118</v>
+        <v>171174</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>196248</v>
+        <v>196121</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.7318052198715914</v>
+        <v>0.7318052198715913</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.682294155890243</v>
+        <v>0.6785551199601113</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7779516468319431</v>
+        <v>0.777447479781715</v>
       </c>
     </row>
     <row r="34">
@@ -2855,19 +2855,19 @@
         <v>13635</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8171</v>
+        <v>8089</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20955</v>
+        <v>20571</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1013889442845338</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0607615186456461</v>
+        <v>0.06014923222971395</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.155824006461777</v>
+        <v>0.1529670862798342</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -2876,19 +2876,19 @@
         <v>4907</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2443</v>
+        <v>2574</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8522</v>
+        <v>8565</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.04166243467871324</v>
+        <v>0.04166243467871323</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02074444860707452</v>
+        <v>0.02185774296227227</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07235806822212203</v>
+        <v>0.07271963497144678</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>29</v>
@@ -2897,19 +2897,19 @@
         <v>18542</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>12947</v>
+        <v>12244</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26316</v>
+        <v>26103</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.07350248062622879</v>
+        <v>0.0735024806262288</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05132425336005161</v>
+        <v>0.04853799535540183</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1043178411402337</v>
+        <v>0.1034767497425802</v>
       </c>
     </row>
     <row r="35">
@@ -2926,19 +2926,19 @@
         <v>10406</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5805</v>
+        <v>5464</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17701</v>
+        <v>16698</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.07737542709938972</v>
+        <v>0.07737542709938973</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04316934345565147</v>
+        <v>0.04063166535674251</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1316211342472694</v>
+        <v>0.1241695015429391</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -2947,19 +2947,19 @@
         <v>5459</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2806</v>
+        <v>2688</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10223</v>
+        <v>10043</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04634843753748005</v>
+        <v>0.04634843753748004</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02382457488195726</v>
+        <v>0.02282581148610405</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08679367915053571</v>
+        <v>0.08526758485664568</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>22</v>
@@ -2968,19 +2968,19 @@
         <v>15865</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>9858</v>
+        <v>9804</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>23177</v>
+        <v>23513</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.06288884446539494</v>
+        <v>0.06288884446539493</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03907987323319817</v>
+        <v>0.03886337603913606</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0918773722305764</v>
+        <v>0.09320698692221349</v>
       </c>
     </row>
     <row r="36">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7768</v>
+        <v>7601</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01023143967145832</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05776631803631924</v>
+        <v>0.05651932020653776</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -3018,19 +3018,19 @@
         <v>1834</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4507</v>
+        <v>4227</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01556970871796036</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003956721391753767</v>
+        <v>0.003941417411613645</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03826730274664953</v>
+        <v>0.03588783307382294</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -3039,19 +3039,19 @@
         <v>3210</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>936</v>
+        <v>1312</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8155</v>
+        <v>8554</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.01272389146122483</v>
+        <v>0.01272389146122482</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.003712012629147601</v>
+        <v>0.005200114419313586</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0323272258317</v>
+        <v>0.03391070577470818</v>
       </c>
     </row>
     <row r="37">
@@ -3190,19 +3190,19 @@
         <v>50407</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>39809</v>
+        <v>39944</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>60926</v>
+        <v>61257</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3746747319311451</v>
+        <v>0.3746747319311452</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2958981251429582</v>
+        <v>0.2968991334237236</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4528605853423842</v>
+        <v>0.4553204586370303</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>59</v>
@@ -3211,19 +3211,19 @@
         <v>42648</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>34732</v>
+        <v>35149</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>50847</v>
+        <v>50862</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.4933944420487128</v>
+        <v>0.4933944420487129</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.4018197719612898</v>
+        <v>0.4066464683277515</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.5882574535717345</v>
+        <v>0.5884312601425685</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>112</v>
@@ -3232,19 +3232,19 @@
         <v>93055</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>80453</v>
+        <v>80820</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>108407</v>
+        <v>105951</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.4211139125521175</v>
+        <v>0.4211139125521174</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3640868288395196</v>
+        <v>0.3657453751292571</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4905894373192045</v>
+        <v>0.4794758737774031</v>
       </c>
     </row>
     <row r="40">
@@ -3261,19 +3261,19 @@
         <v>21102</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>14409</v>
+        <v>14435</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>29229</v>
+        <v>29426</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1568501120766406</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1071011642261057</v>
+        <v>0.1072945523618365</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2172604195237616</v>
+        <v>0.2187207556479594</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>24</v>
@@ -3282,19 +3282,19 @@
         <v>15770</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10211</v>
+        <v>10535</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>22440</v>
+        <v>22348</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1824413370418026</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1181283886192612</v>
+        <v>0.121878034684492</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2596081435841383</v>
+        <v>0.2585489992872246</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>50</v>
@@ -3303,19 +3303,19 @@
         <v>36872</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>28581</v>
+        <v>28201</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>47186</v>
+        <v>47058</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1668605435146233</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1293433606481475</v>
+        <v>0.1276221907453524</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2135389900634775</v>
+        <v>0.2129600091355719</v>
       </c>
     </row>
     <row r="41">
@@ -3332,19 +3332,19 @@
         <v>15364</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9199</v>
+        <v>9623</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22782</v>
+        <v>23088</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1141962223618396</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06837875015774007</v>
+        <v>0.07152743989125647</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1693349469952866</v>
+        <v>0.1716148449450952</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -3353,19 +3353,19 @@
         <v>5788</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2873</v>
+        <v>2920</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>10156</v>
+        <v>10417</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.06695952953444971</v>
+        <v>0.06695952953444974</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03323607841597503</v>
+        <v>0.03378233205350219</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1174921168211773</v>
+        <v>0.1205098288752661</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>26</v>
@@ -3374,19 +3374,19 @@
         <v>21151</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>14053</v>
+        <v>13698</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>30466</v>
+        <v>30013</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.09571880771875975</v>
+        <v>0.09571880771875974</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06359522723568799</v>
+        <v>0.0619895245847245</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1378712598863573</v>
+        <v>0.1358226967873788</v>
       </c>
     </row>
     <row r="42">
@@ -3403,19 +3403,19 @@
         <v>26073</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18910</v>
+        <v>17800</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>35088</v>
+        <v>35815</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1937986014141249</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1405602548221767</v>
+        <v>0.1323039925552978</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2608085478886533</v>
+        <v>0.2662094683805568</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>24</v>
@@ -3424,19 +3424,19 @@
         <v>15805</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>10612</v>
+        <v>10827</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>22666</v>
+        <v>22637</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1828450495157616</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1227727236866526</v>
+        <v>0.1252627515331704</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2622314014480558</v>
+        <v>0.2618912175677863</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>54</v>
@@ -3445,19 +3445,19 @@
         <v>41877</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>31424</v>
+        <v>32590</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>51748</v>
+        <v>53427</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1895139381973301</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1422090520121299</v>
+        <v>0.1474849663866693</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2341809248066405</v>
+        <v>0.2417814647764974</v>
       </c>
     </row>
     <row r="43">
@@ -3474,19 +3474,19 @@
         <v>13485</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>8027</v>
+        <v>8267</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>21138</v>
+        <v>20608</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1002337105937109</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05966394542958076</v>
+        <v>0.06144816562653719</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1571167026547766</v>
+        <v>0.1531817916382231</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>9</v>
@@ -3495,19 +3495,19 @@
         <v>5431</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2484</v>
+        <v>2882</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>9641</v>
+        <v>9991</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.06283117930312364</v>
+        <v>0.06283117930312365</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02873876444887343</v>
+        <v>0.03334299284958113</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1115331307532067</v>
+        <v>0.1155870616009623</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>25</v>
@@ -3516,19 +3516,19 @@
         <v>18916</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>13242</v>
+        <v>12794</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>27704</v>
+        <v>27286</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.08560309109030192</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05992408576168701</v>
+        <v>0.05789906044993508</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1253710979553862</v>
+        <v>0.1234820148065386</v>
       </c>
     </row>
     <row r="44">
@@ -3545,19 +3545,19 @@
         <v>8105</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4172</v>
+        <v>3980</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>14604</v>
+        <v>14265</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.06024662162253878</v>
+        <v>0.06024662162253881</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03101215630176924</v>
+        <v>0.02958038460282003</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.108550607648624</v>
+        <v>0.1060290892589497</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -3569,16 +3569,16 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3100</v>
+        <v>3143</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.01152846255614932</v>
+        <v>0.01152846255614933</v>
       </c>
       <c r="O44" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03586721793716862</v>
+        <v>0.03636725458697259</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>12</v>
@@ -3587,19 +3587,19 @@
         <v>9102</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4970</v>
+        <v>4957</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>15320</v>
+        <v>15696</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.04118970692686746</v>
+        <v>0.04118970692686744</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02249281718743221</v>
+        <v>0.0224313158075285</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.06933128885852272</v>
+        <v>0.07103103292851433</v>
       </c>
     </row>
     <row r="45">
@@ -3691,19 +3691,19 @@
         <v>245062</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>225885</v>
+        <v>222994</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>267347</v>
+        <v>266764</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.6407930629184075</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5906486316630197</v>
+        <v>0.5830908529707104</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.6990651513516014</v>
+        <v>0.6975418219221733</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>282</v>
@@ -3712,19 +3712,19 @@
         <v>230899</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>214339</v>
+        <v>215020</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>249470</v>
+        <v>246442</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.6444833738447052</v>
+        <v>0.6444833738447053</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.598260688688238</v>
+        <v>0.6001620879385556</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6963194093438245</v>
+        <v>0.6878678734007655</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>481</v>
@@ -3733,19 +3733,19 @@
         <v>475960</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>447494</v>
+        <v>446806</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>502032</v>
+        <v>500093</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.6425780217171347</v>
+        <v>0.6425780217171346</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.604146564973972</v>
+        <v>0.603218509160631</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.6777761851705546</v>
+        <v>0.6751590178100387</v>
       </c>
     </row>
     <row r="47">
@@ -3762,19 +3762,19 @@
         <v>85087</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>67884</v>
+        <v>66669</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>103297</v>
+        <v>105350</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2224869636490199</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.177504290995166</v>
+        <v>0.1743269842371724</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2701021617022912</v>
+        <v>0.2754721377596906</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>88</v>
@@ -3783,19 +3783,19 @@
         <v>70966</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>57319</v>
+        <v>58462</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>85181</v>
+        <v>86282</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1980806996888857</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1599879483114044</v>
+        <v>0.1631794192144547</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2377573924784166</v>
+        <v>0.240830930390449</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>154</v>
@@ -3804,19 +3804,19 @@
         <v>156053</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>135657</v>
+        <v>132370</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>181672</v>
+        <v>180230</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.210681948714031</v>
+        <v>0.2106819487140309</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1831461956248098</v>
+        <v>0.1787085478937422</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2452698509709135</v>
+        <v>0.2433222808782245</v>
       </c>
     </row>
     <row r="48">
@@ -3833,19 +3833,19 @@
         <v>22276</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>13373</v>
+        <v>13834</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>33398</v>
+        <v>33706</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.05824672584191104</v>
+        <v>0.05824672584191105</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03496672977895494</v>
+        <v>0.03617471331207071</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.08732897013839622</v>
+        <v>0.08813506627326431</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>21</v>
@@ -3854,19 +3854,19 @@
         <v>17194</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>10901</v>
+        <v>10962</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>25170</v>
+        <v>25637</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.04799135401457796</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03042811547579991</v>
+        <v>0.03059590417144493</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.07025421581853454</v>
+        <v>0.07155802890112266</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>40</v>
@@ -3875,19 +3875,19 @@
         <v>39469</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>27890</v>
+        <v>28218</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>52856</v>
+        <v>53617</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.05328632642218492</v>
+        <v>0.05328632642218491</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03765325665119649</v>
+        <v>0.03809599014459328</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.07135880041627943</v>
+        <v>0.07238687112289617</v>
       </c>
     </row>
     <row r="49">
@@ -3904,19 +3904,19 @@
         <v>20448</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>12621</v>
+        <v>11534</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>31671</v>
+        <v>33163</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05346746675025917</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.03300167417494761</v>
+        <v>0.03015871009317862</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08281531883028306</v>
+        <v>0.08671525721277897</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>25</v>
@@ -3925,19 +3925,19 @@
         <v>18581</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>12655</v>
+        <v>12662</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>26743</v>
+        <v>27222</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.05186314316181181</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.03532160955900288</v>
+        <v>0.03534325371039204</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.07464499708678041</v>
+        <v>0.07598233001598897</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>42</v>
@@ -3946,19 +3946,19 @@
         <v>39029</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>29308</v>
+        <v>28324</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>54157</v>
+        <v>52454</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.05269147481830631</v>
+        <v>0.0526914748183063</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03956789748811027</v>
+        <v>0.03823862856754841</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.0731162013143475</v>
+        <v>0.07081707137147984</v>
       </c>
     </row>
     <row r="50">
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>5117</v>
+        <v>6703</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.002872784031450711</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01338005422825004</v>
+        <v>0.01752700652080397</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>19</v>
@@ -3996,19 +3996,19 @@
         <v>14434</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>9203</v>
+        <v>9056</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>22274</v>
+        <v>22288</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.04028910908599869</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02568825179704146</v>
+        <v>0.02527687870118623</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.06217202300864723</v>
+        <v>0.06220926376217584</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>20</v>
@@ -4017,19 +4017,19 @@
         <v>15533</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>9599</v>
+        <v>10067</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>23883</v>
+        <v>23699</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.02097060829504248</v>
+        <v>0.02097060829504247</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01295955025138068</v>
+        <v>0.01359138728442054</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.03224372980222212</v>
+        <v>0.03199492759087658</v>
       </c>
     </row>
     <row r="51">
@@ -4046,19 +4046,19 @@
         <v>8464</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>3436</v>
+        <v>2888</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>18766</v>
+        <v>17950</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.02213299680895161</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.008984625844200315</v>
+        <v>0.00755278153452267</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04906875117893584</v>
+        <v>0.04693578308874486</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>8</v>
@@ -4067,19 +4067,19 @@
         <v>6195</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>2792</v>
+        <v>2970</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>12203</v>
+        <v>12039</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.01729232020402047</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.007792776677948298</v>
+        <v>0.008289933562497019</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.03406207677040898</v>
+        <v>0.03360407485141333</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>14</v>
@@ -4088,19 +4088,19 @@
         <v>14660</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>7952</v>
+        <v>8004</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>26254</v>
+        <v>25796</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.01979162003330071</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.0107356860616981</v>
+        <v>0.01080653622999798</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.035444264380845</v>
+        <v>0.03482620653603726</v>
       </c>
     </row>
     <row r="52">
@@ -4192,19 +4192,19 @@
         <v>255576</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>229039</v>
+        <v>230771</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>277280</v>
+        <v>276357</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.5661961390614847</v>
+        <v>0.5661961390614846</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.5074066609774502</v>
+        <v>0.5112435216748967</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.6142793901048943</v>
+        <v>0.6122344911827096</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>167</v>
@@ -4213,19 +4213,19 @@
         <v>140467</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>124772</v>
+        <v>124145</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>156886</v>
+        <v>156274</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.4503334874405491</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.4000155902812204</v>
+        <v>0.3980057845098693</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.5029723121188103</v>
+        <v>0.5010129328422412</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>377</v>
@@ -4234,19 +4234,19 @@
         <v>396042</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>369458</v>
+        <v>363967</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>427591</v>
+        <v>422561</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.5188501766313172</v>
+        <v>0.5188501766313171</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.484022255487588</v>
+        <v>0.4768285700665343</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.5601811732702506</v>
+        <v>0.5535917957268779</v>
       </c>
     </row>
     <row r="54">
@@ -4263,19 +4263,19 @@
         <v>140690</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>119839</v>
+        <v>119833</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>165341</v>
+        <v>162226</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.3116820905679921</v>
+        <v>0.3116820905679923</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2654875519882557</v>
+        <v>0.2654756881449392</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3662926853719632</v>
+        <v>0.3593923499213074</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>126</v>
@@ -4284,19 +4284,19 @@
         <v>105439</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>90830</v>
+        <v>89500</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>120376</v>
+        <v>121210</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3380349796974034</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2911985120539582</v>
+        <v>0.286933979978518</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.385921666373082</v>
+        <v>0.3885954677637014</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>249</v>
@@ -4305,19 +4305,19 @@
         <v>246129</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>221316</v>
+        <v>222135</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>272534</v>
+        <v>273774</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3224509007168359</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2899430870615066</v>
+        <v>0.2910162114532104</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3570436295852509</v>
+        <v>0.3586680803293918</v>
       </c>
     </row>
     <row r="55">
@@ -4334,19 +4334,19 @@
         <v>29976</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>19916</v>
+        <v>19963</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>43666</v>
+        <v>44284</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.06640795232022462</v>
+        <v>0.0664079523202246</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.04412033827722573</v>
+        <v>0.04422524082838025</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.09673694136072973</v>
+        <v>0.09810473908036539</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>51</v>
@@ -4355,19 +4355,19 @@
         <v>41937</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>32651</v>
+        <v>32521</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>55818</v>
+        <v>54598</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1344504231822809</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1046800772891295</v>
+        <v>0.1042608752919027</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1789528498410501</v>
+        <v>0.1750414535434169</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>77</v>
@@ -4376,19 +4376,19 @@
         <v>71913</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>57304</v>
+        <v>57119</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>89123</v>
+        <v>91356</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.09421273862556909</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.07507370901543794</v>
+        <v>0.07483054516072085</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1167583849362788</v>
+        <v>0.1196841443093671</v>
       </c>
     </row>
     <row r="56">
@@ -4405,19 +4405,19 @@
         <v>8308</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>3354</v>
+        <v>3932</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>15873</v>
+        <v>16128</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01840635201131529</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.007429861594822037</v>
+        <v>0.008711737390653375</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03516369703375695</v>
+        <v>0.03572845498737551</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>16</v>
@@ -4426,19 +4426,19 @@
         <v>12769</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>7101</v>
+        <v>7155</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>19904</v>
+        <v>19724</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.04093823934870303</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.02276523995389561</v>
+        <v>0.02293773878787674</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.06381250432666548</v>
+        <v>0.06323402061257247</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>24</v>
@@ -4447,19 +4447,19 @@
         <v>21078</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>13879</v>
+        <v>13508</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>30775</v>
+        <v>30824</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.02761375298507279</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01818257424295445</v>
+        <v>0.01769638457805643</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.04031848055181009</v>
+        <v>0.04038241467871119</v>
       </c>
     </row>
     <row r="57">
@@ -4476,19 +4476,19 @@
         <v>10353</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>4459</v>
+        <v>4893</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>20630</v>
+        <v>20982</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.02293504600586468</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.009878796294746816</v>
+        <v>0.01083996926415483</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.04570290660791641</v>
+        <v>0.0464822191812924</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>11</v>
@@ -4497,19 +4497,19 @@
         <v>9059</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>4757</v>
+        <v>4764</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>15336</v>
+        <v>15964</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.02904239327597276</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.01525040295554587</v>
+        <v>0.01527387757370129</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.04916629249268142</v>
+        <v>0.05118187552814957</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>19</v>
@@ -4518,19 +4518,19 @@
         <v>19411</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>11163</v>
+        <v>12453</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>30321</v>
+        <v>31489</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.02543074440697287</v>
+        <v>0.02543074440697286</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.01462515512756987</v>
+        <v>0.01631455908857263</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.03972377567774887</v>
+        <v>0.04125278026748917</v>
       </c>
     </row>
     <row r="58">
@@ -4547,19 +4547,19 @@
         <v>6488</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>2336</v>
+        <v>2294</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>14878</v>
+        <v>15463</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.0143724200331186</v>
+        <v>0.01437242003311861</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.005176080913230366</v>
+        <v>0.005082408033405418</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.03296054670524143</v>
+        <v>0.034256776406217</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>3</v>
@@ -4568,19 +4568,19 @@
         <v>2246</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>6110</v>
+        <v>6968</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.007200477055090897</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.002184983235459621</v>
+        <v>0.00219159894964748</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.01958908433618478</v>
+        <v>0.02233880566961587</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>8</v>
@@ -4589,19 +4589,19 @@
         <v>8734</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>3793</v>
+        <v>3971</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>17096</v>
+        <v>17616</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.01144168663423231</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.00496910135515817</v>
+        <v>0.00520264706658752</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.0223977179330917</v>
+        <v>0.02307793417689251</v>
       </c>
     </row>
     <row r="59">
@@ -4693,19 +4693,19 @@
         <v>1083224</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>1031941</v>
+        <v>1035321</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>1130721</v>
+        <v>1131781</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>0.565588209427545</v>
+        <v>0.5655882094275448</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.5388113465177544</v>
+        <v>0.5405763979395772</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.5903878846393878</v>
+        <v>0.5909415681018216</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>1055</v>
@@ -4714,19 +4714,19 @@
         <v>818305</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>785290</v>
+        <v>783090</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>851248</v>
+        <v>853230</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.5470086483121269</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.5249390494954799</v>
+        <v>0.5234686128105104</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.569029540623523</v>
+        <v>0.5703547960692831</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>1962</v>
@@ -4735,19 +4735,19 @@
         <v>1901529</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>1841968</v>
+        <v>1838726</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>1958644</v>
+        <v>1956380</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.5574401941665393</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.5399795928742995</v>
+        <v>0.5390290918891416</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.5741836634032738</v>
+        <v>0.5735197035347304</v>
       </c>
     </row>
     <row r="61">
@@ -4764,19 +4764,19 @@
         <v>442284</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>404211</v>
+        <v>401305</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>484464</v>
+        <v>484619</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.2309316945108644</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.2110521710581736</v>
+        <v>0.2095350931424396</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.2529550091350483</v>
+        <v>0.2530360053385686</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>551</v>
@@ -4785,19 +4785,19 @@
         <v>383401</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>351827</v>
+        <v>355659</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>411907</v>
+        <v>414974</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.2562901620242615</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.2351842230256259</v>
+        <v>0.237745424402198</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.2753457041242851</v>
+        <v>0.2773953873005728</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>963</v>
@@ -4806,19 +4806,19 @@
         <v>825685</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>774073</v>
+        <v>777767</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>873735</v>
+        <v>878098</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.2420525804678214</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.2269222867103202</v>
+        <v>0.2280051830073375</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.2561386994124155</v>
+        <v>0.2574174908345568</v>
       </c>
     </row>
     <row r="62">
@@ -4835,19 +4835,19 @@
         <v>158257</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>133264</v>
+        <v>131809</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>188484</v>
+        <v>187817</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.08263155321068805</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.06958172318189862</v>
+        <v>0.06882185017960474</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.09841375209007956</v>
+        <v>0.09806573532806895</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>157</v>
@@ -4856,19 +4856,19 @@
         <v>117621</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>100016</v>
+        <v>102112</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>135473</v>
+        <v>138935</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.07862550405810131</v>
+        <v>0.07862550405810133</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.06685713236704413</v>
+        <v>0.06825833698102833</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.09055930606746018</v>
+        <v>0.09287299514808985</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>291</v>
@@ -4877,19 +4877,19 @@
         <v>275878</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>243757</v>
+        <v>245712</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>311805</v>
+        <v>312140</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.08087471140862156</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.07145818433778978</v>
+        <v>0.07203149035342676</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.09140690292228223</v>
+        <v>0.09150503931816158</v>
       </c>
     </row>
     <row r="63">
@@ -4906,19 +4906,19 @@
         <v>128107</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>105144</v>
+        <v>106226</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>158040</v>
+        <v>156806</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>0.06688909354565439</v>
+        <v>0.06688909354565438</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.05489939242157472</v>
+        <v>0.05546430177212498</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.08251805063016944</v>
+        <v>0.08187361127091394</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>131</v>
@@ -4927,19 +4927,19 @@
         <v>94948</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>79624</v>
+        <v>80375</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>111118</v>
+        <v>112791</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.06346948540632873</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.05322576121462596</v>
+        <v>0.05372775830989177</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.07427856508758678</v>
+        <v>0.07539690935128113</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>239</v>
@@ -4948,19 +4948,19 @@
         <v>223055</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>193978</v>
+        <v>193424</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>257492</v>
+        <v>254735</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.06538943383180018</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.05686533850815879</v>
+        <v>0.0567029193251651</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.07548482990629103</v>
+        <v>0.07467654805212896</v>
       </c>
     </row>
     <row r="64">
@@ -4977,19 +4977,19 @@
         <v>67531</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>51432</v>
+        <v>51108</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>91263</v>
+        <v>89282</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.03526020373268932</v>
+        <v>0.03526020373268931</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.0268541859668175</v>
+        <v>0.02668548279567757</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.04765147326681038</v>
+        <v>0.04661702028769171</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>77</v>
@@ -4998,19 +4998,19 @@
         <v>59929</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>47331</v>
+        <v>47613</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>76484</v>
+        <v>76236</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.04006055864250933</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.03163885218513731</v>
+        <v>0.03182764117094248</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.05112692859245915</v>
+        <v>0.05096132738713476</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>134</v>
@@ -5019,19 +5019,19 @@
         <v>127460</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>107335</v>
+        <v>105449</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>158118</v>
+        <v>151922</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.03736538613288062</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.03146558860840101</v>
+        <v>0.03091274113454428</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.04635295956017618</v>
+        <v>0.04453660159640002</v>
       </c>
     </row>
     <row r="65">
@@ -5048,19 +5048,19 @@
         <v>35813</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>25341</v>
+        <v>24329</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>52039</v>
+        <v>49572</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.01869924557255889</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.01323137866673619</v>
+        <v>0.01270274233167808</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.02717126268112645</v>
+        <v>0.02588328412756818</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>30</v>
@@ -5069,19 +5069,19 @@
         <v>21760</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>14935</v>
+        <v>14887</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>31040</v>
+        <v>30609</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.01454564155667216</v>
+        <v>0.01454564155667217</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.009983738425694666</v>
+        <v>0.009951132019085289</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.02074944672351278</v>
+        <v>0.02046084718412717</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>62</v>
@@ -5090,19 +5090,19 @@
         <v>57573</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>43835</v>
+        <v>44883</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>73462</v>
+        <v>73033</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.01687769399233697</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.01285048844979436</v>
+        <v>0.01315763800288947</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.0215355854188485</v>
+        <v>0.02140980299238061</v>
       </c>
     </row>
     <row r="66">
